--- a/AzentioAutomationFramework_Ijara/TestData/ijaraTestData.xlsx
+++ b/AzentioAutomationFramework_Ijara/TestData/ijaraTestData.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="75" windowWidth="28755" windowHeight="12600"/>
+    <workbookView xWindow="0" yWindow="75" windowWidth="28755" windowHeight="12600" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="ijara_LoginCredentials" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="IncomeDetailsList" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="125725"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>UserName</t>
   </si>
@@ -30,17 +30,35 @@
     <t>UserType</t>
   </si>
   <si>
-    <t>in02040</t>
-  </si>
-  <si>
-    <t>admin</t>
+    <t>Admin@1</t>
+  </si>
+  <si>
+    <t>TestCaseID</t>
+  </si>
+  <si>
+    <t>Data Set ID</t>
+  </si>
+  <si>
+    <t>AT_INC_01</t>
+  </si>
+  <si>
+    <t>DS_AT_INC_01</t>
+  </si>
+  <si>
+    <t>FrequencyInput</t>
+  </si>
+  <si>
+    <t>0343</t>
+  </si>
+  <si>
+    <t>Days</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -48,8 +66,21 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -62,8 +93,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB2B2B2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -86,16 +123,35 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Excel_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_" xfId="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -390,14 +446,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="19.28515625" customWidth="1"/>
     <col min="2" max="2" width="16.42578125" customWidth="1"/>
+    <col min="3" max="3" width="13.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -415,26 +472,59 @@
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>4</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>5</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="U18" sqref="U18"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="17" customWidth="1"/>
+    <col min="2" max="3" width="18.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
